--- a/app/src/main/java/com/example/a.xlsx
+++ b/app/src/main/java/com/example/a.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ty\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\Prj\GitHub\Excel2MySQL\app\src\main\java\com\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4005" windowWidth="19320" windowHeight="3885" tabRatio="885" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4005" windowWidth="19320" windowHeight="3885" tabRatio="885" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -4653,16 +4653,40 @@
     <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -4695,32 +4719,17 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="19" fillId="0" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4758,14 +4767,23 @@
     <xf numFmtId="177" fontId="57" fillId="0" borderId="37" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4782,28 +4800,16 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="43" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4827,18 +4833,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4855,6 +4849,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12444,160 +12444,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
     </row>
     <row r="2" spans="1:29" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
     </row>
     <row r="3" spans="1:29" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="114"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="119">
+      <c r="D3" s="127">
         <v>42554</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="108">
+      <c r="E3" s="109"/>
+      <c r="F3" s="112">
         <v>42586</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="122">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="108">
         <v>42613</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="122">
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="108">
         <v>42654</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="122">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="108">
         <v>42687</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="108">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="112">
         <v>42722</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="108">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="112">
         <v>42782</v>
       </c>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="108">
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="112">
         <v>42812</v>
       </c>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="108">
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="112">
         <v>42850</v>
       </c>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
     </row>
     <row r="4" spans="1:29" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="61">
         <v>42533</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="129" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="130" t="s">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111" t="s">
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="128" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="128" t="s">
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="123" t="s">
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="110" t="s">
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="119" t="s">
         <v>227</v>
       </c>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
     </row>
     <row r="5" spans="1:29" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="30" t="s">
         <v>23</v>
       </c>
@@ -12610,59 +12610,59 @@
       <c r="F5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="109"/>
       <c r="I5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="111"/>
+      <c r="K5" s="109"/>
       <c r="L5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="111"/>
+      <c r="N5" s="109"/>
       <c r="O5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="111"/>
+      <c r="Q5" s="109"/>
       <c r="R5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="111" t="s">
+      <c r="S5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="111"/>
+      <c r="T5" s="109"/>
       <c r="U5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="111" t="s">
+      <c r="V5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="111"/>
+      <c r="W5" s="109"/>
       <c r="X5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="111" t="s">
+      <c r="Y5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="111"/>
+      <c r="Z5" s="109"/>
       <c r="AA5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="111" t="s">
+      <c r="AB5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="111"/>
+      <c r="AC5" s="109"/>
     </row>
     <row r="6" spans="1:29" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="53" t="s">
@@ -15614,46 +15614,32 @@
       <c r="Z41"/>
     </row>
     <row r="44" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="125"/>
-      <c r="S44" s="125"/>
-      <c r="T44" s="125"/>
-      <c r="U44" s="125"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A44:U44"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="L4:N4"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AB5:AC5"/>
@@ -15670,6 +15656,20 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A44:U44"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G7:G31">
@@ -15738,8 +15738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15761,74 +15761,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -15911,56 +15911,66 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="40">
+        <v>1</v>
+      </c>
+      <c r="B15" s="43">
+        <f>A14+A15</f>
+        <v>1</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="42">
+        <v>2</v>
+      </c>
+      <c r="B16" s="43">
+        <f>A15+A16</f>
+        <v>3</v>
+      </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="135"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="138"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140" t="s">
+      <c r="C18" s="142"/>
+      <c r="D18" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="142"/>
+      <c r="F18" s="145"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="137"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="141"/>
+      <c r="D19" s="144"/>
       <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
@@ -16062,14 +16072,14 @@
       <c r="F28" s="19"/>
     </row>
     <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
@@ -16712,14 +16722,14 @@
       <c r="L55" s="98"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="132"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
       <c r="L56" s="98"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
@@ -17049,11 +17059,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="A30:F30"/>
@@ -17063,6 +17068,11 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17109,130 +17119,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
     </row>
     <row r="2" spans="1:34" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
     <row r="3" spans="1:34" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="153" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="119">
+      <c r="D3" s="127">
         <v>42554</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="108">
+      <c r="E3" s="109"/>
+      <c r="F3" s="112">
         <v>42586</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="154">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="158">
         <v>42613</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="122">
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="108">
         <v>42654</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="122">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="108">
         <v>42687</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="108">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="112">
         <v>42722</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="108">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="112">
         <v>42782</v>
       </c>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="108">
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="112">
         <v>42812</v>
       </c>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="108">
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="112">
         <v>42850</v>
       </c>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="147" t="s">
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="153" t="s">
         <v>22</v>
       </c>
       <c r="AE3"/>
@@ -17240,63 +17250,63 @@
       <c r="AH3"/>
     </row>
     <row r="4" spans="1:34" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="153"/>
-      <c r="B4" s="148"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="61">
         <v>42533</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="150" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="130" t="s">
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111" t="s">
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="128" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="128" t="s">
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="123" t="s">
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="110" t="s">
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="148"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="154"/>
       <c r="AE4"/>
       <c r="AG4"/>
       <c r="AH4"/>
     </row>
     <row r="5" spans="1:34" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="30" t="s">
         <v>23</v>
       </c>
@@ -17309,67 +17319,67 @@
       <c r="F5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="152"/>
+      <c r="H5" s="151"/>
       <c r="I5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="152"/>
+      <c r="K5" s="151"/>
       <c r="L5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="151" t="s">
+      <c r="M5" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="152"/>
+      <c r="N5" s="151"/>
       <c r="O5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="151" t="s">
+      <c r="P5" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="152"/>
+      <c r="Q5" s="151"/>
       <c r="R5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="151" t="s">
+      <c r="S5" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="152"/>
+      <c r="T5" s="151"/>
       <c r="U5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="151" t="s">
+      <c r="V5" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="152"/>
+      <c r="W5" s="151"/>
       <c r="X5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="151" t="s">
+      <c r="Y5" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="152"/>
+      <c r="Z5" s="151"/>
       <c r="AA5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" s="151" t="s">
+      <c r="AB5" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="148"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="154"/>
       <c r="AE5"/>
       <c r="AG5"/>
       <c r="AH5"/>
     </row>
     <row r="6" spans="1:34" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="153"/>
-      <c r="B6" s="149"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="30" t="s">
         <v>28</v>
       </c>
@@ -17451,7 +17461,7 @@
       <c r="AC6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="149"/>
+      <c r="AD6" s="155"/>
       <c r="AE6"/>
       <c r="AG6"/>
       <c r="AH6"/>
@@ -19711,32 +19721,48 @@
     </row>
     <row r="43" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="125"/>
-      <c r="S44" s="125"/>
-      <c r="T44" s="125"/>
-      <c r="U44" s="125"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A44:U44"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
@@ -19753,22 +19779,6 @@
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A44:U44"/>
-    <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="E13:E27">
@@ -19888,7 +19898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -19922,32 +19932,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="161" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
       <c r="Y1" s="107"/>
       <c r="Z1" s="107"/>
       <c r="AA1" s="107"/>
@@ -19956,96 +19966,96 @@
       <c r="AD1" s="107"/>
     </row>
     <row r="2" spans="1:36" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="159" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="167"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
     <row r="3" spans="1:36" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="163" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="164">
+      <c r="D3" s="166">
         <v>42554</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="154">
+      <c r="E3" s="167"/>
+      <c r="F3" s="158">
         <v>42586</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="154">
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="158">
         <v>42613</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="122">
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="108">
         <v>42654</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="122">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="108">
         <v>42687</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="108">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="112">
         <v>42722</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="108">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="112">
         <v>42782</v>
       </c>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="108">
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="112">
         <v>42812</v>
       </c>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="108">
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="112">
         <v>42850</v>
       </c>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="161" t="s">
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="163" t="s">
         <v>220</v>
       </c>
       <c r="AE3">
@@ -20056,63 +20066,63 @@
       <c r="AH3"/>
     </row>
     <row r="4" spans="1:36" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="163"/>
-      <c r="B4" s="161"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="74">
         <v>42533</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="150" t="s">
+      <c r="E4" s="164"/>
+      <c r="F4" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150" t="s">
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="130" t="s">
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111" t="s">
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="128" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="128" t="s">
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="123" t="s">
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="110" t="s">
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="161"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="163"/>
       <c r="AE4"/>
       <c r="AG4"/>
       <c r="AH4"/>
     </row>
     <row r="5" spans="1:36" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="163"/>
-      <c r="B5" s="161"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="68" t="s">
         <v>116</v>
       </c>
@@ -20125,67 +20135,67 @@
       <c r="F5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="150"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="150"/>
+      <c r="K5" s="156"/>
       <c r="L5" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="N5" s="150"/>
+      <c r="N5" s="156"/>
       <c r="O5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="P5" s="150" t="s">
+      <c r="P5" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="Q5" s="150"/>
+      <c r="Q5" s="156"/>
       <c r="R5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="S5" s="150" t="s">
+      <c r="S5" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="T5" s="150"/>
+      <c r="T5" s="156"/>
       <c r="U5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="V5" s="150" t="s">
+      <c r="V5" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="W5" s="150"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="Y5" s="150" t="s">
+      <c r="Y5" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="Z5" s="150"/>
+      <c r="Z5" s="156"/>
       <c r="AA5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="AB5" s="150" t="s">
+      <c r="AB5" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="161"/>
+      <c r="AC5" s="156"/>
+      <c r="AD5" s="163"/>
       <c r="AE5"/>
       <c r="AG5"/>
       <c r="AH5"/>
     </row>
     <row r="6" spans="1:36" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="163"/>
-      <c r="B6" s="161"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="68" t="s">
         <v>28</v>
       </c>
@@ -20267,7 +20277,7 @@
       <c r="AC6" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AD6" s="161"/>
+      <c r="AD6" s="163"/>
       <c r="AE6"/>
       <c r="AG6"/>
       <c r="AH6"/>
@@ -22652,29 +22662,29 @@
     </row>
     <row r="43" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="125"/>
-      <c r="S44" s="125"/>
-      <c r="T44" s="125"/>
-      <c r="U44" s="125"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
       <c r="AC44" s="66"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.15">
@@ -22733,6 +22743,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A44:U44"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="A2:AD2"/>
@@ -22749,22 +22775,6 @@
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A44:U44"/>
-    <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="G22:G27 E13:E27">
@@ -22916,154 +22926,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
     </row>
     <row r="2" spans="1:25" s="87" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="168" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
     </row>
     <row r="3" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="169" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="166" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="174">
+      <c r="E3" s="167"/>
+      <c r="F3" s="172">
         <v>42850</v>
       </c>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="174" t="s">
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="172" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="150" t="s">
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150" t="s">
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150" t="s">
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150" t="s">
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="171" t="s">
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="169" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="163"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="74">
         <v>42782</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="150" t="s">
+      <c r="E4" s="164"/>
+      <c r="F4" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="175" t="s">
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="150" t="s">
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150" t="s">
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150" t="s">
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150" t="s">
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="172"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="170"/>
     </row>
     <row r="5" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="163"/>
-      <c r="B5" s="172"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="68" t="s">
         <v>198</v>
       </c>
@@ -23076,50 +23086,50 @@
       <c r="F5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="168" t="s">
+      <c r="G5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="169"/>
+      <c r="H5" s="175"/>
       <c r="I5" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="168" t="s">
+      <c r="J5" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="169"/>
+      <c r="K5" s="175"/>
       <c r="L5" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="168" t="s">
+      <c r="M5" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="N5" s="169"/>
+      <c r="N5" s="175"/>
       <c r="O5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="P5" s="168" t="s">
+      <c r="P5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="Q5" s="169"/>
+      <c r="Q5" s="175"/>
       <c r="R5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="S5" s="168" t="s">
+      <c r="S5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="T5" s="169"/>
+      <c r="T5" s="175"/>
       <c r="U5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="168" t="s">
+      <c r="V5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="W5" s="169"/>
-      <c r="X5" s="172"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="170"/>
     </row>
     <row r="6" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="163"/>
-      <c r="B6" s="173"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="68" t="s">
         <v>28</v>
       </c>
@@ -23183,7 +23193,7 @@
       <c r="W6" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="X6" s="173"/>
+      <c r="X6" s="171"/>
     </row>
     <row r="7" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -23770,29 +23780,29 @@
       <c r="X37" s="92"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="125"/>
-      <c r="T38" s="125"/>
-      <c r="U38" s="125"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="114"/>
       <c r="X38" s="92"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.15">
@@ -24004,6 +24014,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A38:U38"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:A6"/>
@@ -24020,16 +24040,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A38:U38"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="V5:W5"/>
   </mergeCells>
   <phoneticPr fontId="48" type="noConversion"/>
   <conditionalFormatting sqref="N7:N18">
@@ -24216,154 +24226,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="161" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
     </row>
     <row r="2" spans="1:25" s="87" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="168" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
     </row>
     <row r="3" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="169" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="166" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="174">
+      <c r="E3" s="167"/>
+      <c r="F3" s="172">
         <v>42850</v>
       </c>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="174" t="s">
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="172" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="150" t="s">
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150" t="s">
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150" t="s">
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150" t="s">
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="171" t="s">
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="169" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="163"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="74">
         <v>42782</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="150" t="s">
+      <c r="E4" s="164"/>
+      <c r="F4" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="175" t="s">
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="150" t="s">
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150" t="s">
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150" t="s">
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150" t="s">
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="172"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="170"/>
     </row>
     <row r="5" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="163"/>
-      <c r="B5" s="172"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="68" t="s">
         <v>198</v>
       </c>
@@ -24376,50 +24386,50 @@
       <c r="F5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="168" t="s">
+      <c r="G5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="169"/>
+      <c r="H5" s="175"/>
       <c r="I5" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="168" t="s">
+      <c r="J5" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="169"/>
+      <c r="K5" s="175"/>
       <c r="L5" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="168" t="s">
+      <c r="M5" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="N5" s="169"/>
+      <c r="N5" s="175"/>
       <c r="O5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="P5" s="168" t="s">
+      <c r="P5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="Q5" s="169"/>
+      <c r="Q5" s="175"/>
       <c r="R5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="S5" s="168" t="s">
+      <c r="S5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="T5" s="169"/>
+      <c r="T5" s="175"/>
       <c r="U5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="168" t="s">
+      <c r="V5" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="W5" s="169"/>
-      <c r="X5" s="172"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="170"/>
     </row>
     <row r="6" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="163"/>
-      <c r="B6" s="173"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="68" t="s">
         <v>28</v>
       </c>
@@ -24483,7 +24493,7 @@
       <c r="W6" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="X6" s="173"/>
+      <c r="X6" s="171"/>
     </row>
     <row r="7" spans="1:25" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -25063,29 +25073,29 @@
       <c r="X36" s="92"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A37" s="146" t="s">
+      <c r="A37" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="125"/>
-      <c r="T37" s="125"/>
-      <c r="U37" s="125"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
       <c r="X37" s="92"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.15">
@@ -25294,6 +25304,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A37:U37"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:A6"/>
@@ -25310,16 +25330,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A37:U37"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="V5:W5"/>
   </mergeCells>
   <phoneticPr fontId="48" type="noConversion"/>
   <conditionalFormatting sqref="N7:N18">
